--- a/apps/static/cargues_masivos/ejemplo_proyectos.xlsx
+++ b/apps/static/cargues_masivos/ejemplo_proyectos.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SINTRA\apps\templates\cargues_masivos\ejemplos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SINTRA\apps\static\cargues_masivos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFCDC28-4AAA-42A9-B185-ED16C3DBC17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0E49691-15CB-4668-8FC4-5D4FF4BFBF95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="CIUDADES" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,16 +26,982 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>PROYECTOS</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="323">
+  <si>
+    <t>NOMBRE CONTACTO</t>
+  </si>
+  <si>
+    <t>TELÉFONO CONTACTO</t>
+  </si>
+  <si>
+    <t>EMAIL CONTACTO</t>
+  </si>
+  <si>
+    <t>DIRECCIÓN</t>
+  </si>
+  <si>
+    <t>EJEMPLO1</t>
+  </si>
+  <si>
+    <t>Zarzal</t>
+  </si>
+  <si>
+    <t>Zaragoza</t>
+  </si>
+  <si>
+    <t>Yumbo</t>
+  </si>
+  <si>
+    <t>Yopal</t>
+  </si>
+  <si>
+    <t>Yarumal</t>
+  </si>
+  <si>
+    <t>Villeta</t>
+  </si>
+  <si>
+    <t>Villavicencio</t>
+  </si>
+  <si>
+    <t>Villa del Rosario</t>
+  </si>
+  <si>
+    <t>Villanueva</t>
+  </si>
+  <si>
+    <t>CIUDAD</t>
+  </si>
+  <si>
+    <t>Zipaquirá</t>
+  </si>
+  <si>
+    <t>Yondó</t>
+  </si>
+  <si>
+    <t>Villamaría</t>
+  </si>
+  <si>
+    <t>Vélez</t>
+  </si>
+  <si>
+    <t>Valledupar</t>
+  </si>
+  <si>
+    <t>Urrao</t>
+  </si>
+  <si>
+    <t>Villa de San Diego de Ubaté</t>
+  </si>
+  <si>
+    <t>Turbo</t>
+  </si>
+  <si>
+    <t>Turbaco</t>
+  </si>
+  <si>
+    <t>Túquerres</t>
+  </si>
+  <si>
+    <t>Tunja</t>
+  </si>
+  <si>
+    <t>Tumaco</t>
+  </si>
+  <si>
+    <t>Tuluá</t>
+  </si>
+  <si>
+    <t>Tolú Viejo</t>
+  </si>
+  <si>
+    <t>Santiago de Tolú</t>
+  </si>
+  <si>
+    <t>Timbiquí</t>
+  </si>
+  <si>
+    <t>Tierralta</t>
+  </si>
+  <si>
+    <t>Tauramena</t>
+  </si>
+  <si>
+    <t>Tarqui</t>
+  </si>
+  <si>
+    <t>Tame</t>
+  </si>
+  <si>
+    <t>Tadó</t>
+  </si>
+  <si>
+    <t>Supía</t>
+  </si>
+  <si>
+    <t>Sucre</t>
+  </si>
+  <si>
+    <t>Suárez</t>
+  </si>
+  <si>
+    <t>Sonsón</t>
+  </si>
+  <si>
+    <t>Soledad</t>
+  </si>
+  <si>
+    <t>Sogamoso</t>
+  </si>
+  <si>
+    <t>Socorro</t>
+  </si>
+  <si>
+    <t>Soacha</t>
+  </si>
+  <si>
+    <t>Sitionuevo</t>
+  </si>
+  <si>
+    <t>Sincelejo</t>
+  </si>
+  <si>
+    <t>San Luis de Sincé</t>
+  </si>
+  <si>
+    <t>Simití</t>
+  </si>
+  <si>
+    <t>Silvania</t>
+  </si>
+  <si>
+    <t>Sibaté</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>Segovia</t>
+  </si>
+  <si>
+    <t>San Vicente</t>
+  </si>
+  <si>
+    <t>Santuario</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>Santa Rosa de Osos</t>
+  </si>
+  <si>
+    <t>Santa Rosa de Cabal</t>
+  </si>
+  <si>
+    <t>Santa Rosa</t>
+  </si>
+  <si>
+    <t>Santander de Quilichao</t>
+  </si>
+  <si>
+    <t>Santa Marta</t>
+  </si>
+  <si>
+    <t>Santa Lucía</t>
+  </si>
+  <si>
+    <t>San Pedro de Urabá</t>
+  </si>
+  <si>
+    <t>San Pablo</t>
+  </si>
+  <si>
+    <t>San Onofre</t>
+  </si>
+  <si>
+    <t>San Martín</t>
+  </si>
+  <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
+    <t>San Lorenzo</t>
+  </si>
+  <si>
+    <t>San Juan Nepomuceno</t>
+  </si>
+  <si>
+    <t>San Juan de Urabá</t>
+  </si>
+  <si>
+    <t>San Juan del Cesar</t>
+  </si>
+  <si>
+    <t>San Jacinto</t>
+  </si>
+  <si>
+    <t>San Gil</t>
+  </si>
+  <si>
+    <t>San Estanislao</t>
+  </si>
+  <si>
+    <t>San Diego</t>
+  </si>
+  <si>
+    <t>San Carlos</t>
+  </si>
+  <si>
+    <t>San Benito Abad</t>
+  </si>
+  <si>
+    <t>San Antero</t>
+  </si>
+  <si>
+    <t>San Andrés</t>
+  </si>
+  <si>
+    <t>Sampués</t>
+  </si>
+  <si>
+    <t>Samaniego</t>
+  </si>
+  <si>
+    <t>Salgar</t>
+  </si>
+  <si>
+    <t>Salamina</t>
+  </si>
+  <si>
+    <t>Sahagún</t>
+  </si>
+  <si>
+    <t>Sabanalarga</t>
+  </si>
+  <si>
+    <t>Sabanagrande</t>
+  </si>
+  <si>
+    <t>Sabana de Torres</t>
+  </si>
+  <si>
+    <t>Rovira</t>
+  </si>
+  <si>
+    <t>Roldanillo</t>
+  </si>
+  <si>
+    <t>Rivera</t>
+  </si>
+  <si>
+    <t>Riosucio</t>
+  </si>
+  <si>
+    <t>Rionegro</t>
+  </si>
+  <si>
+    <t>Riohacha</t>
+  </si>
+  <si>
+    <t>Rioblanco</t>
+  </si>
+  <si>
+    <t>Retiro</t>
+  </si>
+  <si>
+    <t>Restrepo</t>
+  </si>
+  <si>
+    <t>Repelón</t>
+  </si>
+  <si>
+    <t>Quinchía</t>
+  </si>
+  <si>
+    <t>Quimbaya</t>
+  </si>
+  <si>
+    <t>Quibdó</t>
+  </si>
+  <si>
+    <t>Purificación</t>
+  </si>
+  <si>
+    <t>Pupiales</t>
+  </si>
+  <si>
+    <t>Puerto Wilches</t>
+  </si>
+  <si>
+    <t>Puerto Triunfo</t>
+  </si>
+  <si>
+    <t>Puerto Tejada</t>
+  </si>
+  <si>
+    <t>Puerto Santander</t>
+  </si>
+  <si>
+    <t>Puerto Salgar</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Puerto López</t>
+  </si>
+  <si>
+    <t>Puerto Leguízamo</t>
+  </si>
+  <si>
+    <t>Puerto Colombia</t>
+  </si>
+  <si>
+    <t>Puerto Carreño</t>
+  </si>
+  <si>
+    <t>Puerto Boyacá</t>
+  </si>
+  <si>
+    <t>Puerto Berrío</t>
+  </si>
+  <si>
+    <t>Puerto Asís</t>
+  </si>
+  <si>
+    <t>Puebloviejo</t>
+  </si>
+  <si>
+    <t>Pradera</t>
+  </si>
+  <si>
+    <t>Popayán</t>
+  </si>
+  <si>
+    <t>Ponedera</t>
+  </si>
+  <si>
+    <t>Polonuevo</t>
+  </si>
+  <si>
+    <t>Planeta Rica</t>
+  </si>
+  <si>
+    <t>Planadas</t>
+  </si>
+  <si>
+    <t>Pizarro</t>
+  </si>
+  <si>
+    <t>Pivijay</t>
+  </si>
+  <si>
+    <t>Pitalito</t>
+  </si>
+  <si>
+    <t>Pinillos</t>
+  </si>
+  <si>
+    <t>Piedecuesta</t>
+  </si>
+  <si>
+    <t>Pereira</t>
+  </si>
+  <si>
+    <t>Payandé</t>
+  </si>
+  <si>
+    <t>Patía</t>
+  </si>
+  <si>
+    <t>Pasto</t>
+  </si>
+  <si>
+    <t>Pamplona</t>
+  </si>
+  <si>
+    <t>Palmira</t>
+  </si>
+  <si>
+    <t>Palmar de Varela</t>
+  </si>
+  <si>
+    <t>Pailitas</t>
+  </si>
+  <si>
+    <t>Belalcázar</t>
+  </si>
+  <si>
+    <t>Padua</t>
+  </si>
+  <si>
+    <t>Pacho</t>
+  </si>
+  <si>
+    <t>Ocaña</t>
+  </si>
+  <si>
+    <t>Nueva Granada</t>
+  </si>
+  <si>
+    <t>Neiva</t>
+  </si>
+  <si>
+    <t>Neira</t>
+  </si>
+  <si>
+    <t>Nechí</t>
+  </si>
+  <si>
+    <t>Natagaima</t>
+  </si>
+  <si>
+    <t>Mosquera</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Montería</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montelíbano</t>
+  </si>
+  <si>
+    <t>Moniquirá</t>
+  </si>
+  <si>
+    <t>Mompós</t>
+  </si>
+  <si>
+    <t>Momil</t>
+  </si>
+  <si>
+    <t>Mocoa</t>
+  </si>
+  <si>
+    <t>Mitú</t>
+  </si>
+  <si>
+    <t>Miranda</t>
+  </si>
+  <si>
+    <t>Melgar</t>
+  </si>
+  <si>
+    <t>Medellín</t>
+  </si>
+  <si>
+    <t>Marsella</t>
+  </si>
+  <si>
+    <t>San Sebastián de Mariquita</t>
+  </si>
+  <si>
+    <t>Marinilla</t>
+  </si>
+  <si>
+    <t>María la Baja</t>
+  </si>
+  <si>
+    <t>Manzanares</t>
+  </si>
+  <si>
+    <t>Manizales</t>
+  </si>
+  <si>
+    <t>Manatí</t>
+  </si>
+  <si>
+    <t>Malambo</t>
+  </si>
+  <si>
+    <t>Málaga</t>
+  </si>
+  <si>
+    <t>Maicao</t>
+  </si>
+  <si>
+    <t>Mahates</t>
+  </si>
+  <si>
+    <t>Magangué</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Luruaco</t>
+  </si>
+  <si>
+    <t>Los Patios</t>
+  </si>
+  <si>
+    <t>Lorica</t>
+  </si>
+  <si>
+    <t>Líbano</t>
+  </si>
+  <si>
+    <t>Leticia</t>
+  </si>
+  <si>
+    <t>Lérida</t>
+  </si>
+  <si>
+    <t>La Virginia</t>
+  </si>
+  <si>
+    <t>La Unión</t>
+  </si>
+  <si>
+    <t>La Tebaida</t>
+  </si>
+  <si>
+    <t>La Plata</t>
+  </si>
+  <si>
+    <t>La Mesa</t>
+  </si>
+  <si>
+    <t>La Jagua de Ibirico</t>
+  </si>
+  <si>
+    <t>La Estrella</t>
+  </si>
+  <si>
+    <t>La Dorada</t>
+  </si>
+  <si>
+    <t>La Ceja</t>
+  </si>
+  <si>
+    <t>Juan de Acosta</t>
+  </si>
+  <si>
+    <t>Jamundí</t>
+  </si>
+  <si>
+    <t>Ituango</t>
+  </si>
+  <si>
+    <t>Itagüí</t>
+  </si>
+  <si>
+    <t>Ipiales</t>
+  </si>
+  <si>
+    <t>Ibagué</t>
+  </si>
+  <si>
+    <t>Honda</t>
+  </si>
+  <si>
+    <t>Guamo</t>
+  </si>
+  <si>
+    <t>Guamal</t>
+  </si>
+  <si>
+    <t>Guaduas</t>
+  </si>
+  <si>
+    <t>Guadalupe</t>
+  </si>
+  <si>
+    <t>Guacarí</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>Girón</t>
+  </si>
+  <si>
+    <t>Girardot City</t>
+  </si>
+  <si>
+    <t>Gigante</t>
+  </si>
+  <si>
+    <t>Garzón</t>
+  </si>
+  <si>
+    <t>Galapa</t>
+  </si>
+  <si>
+    <t>Fusagasugá</t>
+  </si>
+  <si>
+    <t>Funza</t>
+  </si>
+  <si>
+    <t>Fundación</t>
+  </si>
+  <si>
+    <t>Frontino</t>
+  </si>
+  <si>
+    <t>Fresno</t>
+  </si>
+  <si>
+    <t>Fonseca</t>
+  </si>
+  <si>
+    <t>Floridablanca</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Florencia</t>
+  </si>
+  <si>
+    <t>Flandes</t>
+  </si>
+  <si>
+    <t>Facatativá</t>
+  </si>
+  <si>
+    <t>Espinal</t>
+  </si>
+  <si>
+    <t>Envigado</t>
+  </si>
+  <si>
+    <t>El Zulia</t>
+  </si>
+  <si>
+    <t>El Retén</t>
+  </si>
+  <si>
+    <t>El Doncello</t>
+  </si>
+  <si>
+    <t>El Copey</t>
+  </si>
+  <si>
+    <t>El Charco</t>
+  </si>
+  <si>
+    <t>El Cerrito</t>
+  </si>
+  <si>
+    <t>El Carmen de Bolívar</t>
+  </si>
+  <si>
+    <t>El Carmen de Chucurí</t>
+  </si>
+  <si>
+    <t>El Banco</t>
+  </si>
+  <si>
+    <t>El Bagre</t>
+  </si>
+  <si>
+    <t>Duitama</t>
+  </si>
+  <si>
+    <t>Dosquebradas</t>
+  </si>
+  <si>
+    <t>Darien</t>
+  </si>
+  <si>
+    <t>Dabeiba</t>
+  </si>
+  <si>
+    <t>Curumaní</t>
+  </si>
+  <si>
+    <t>Cumaribo</t>
+  </si>
+  <si>
+    <t>Cúcuta</t>
+  </si>
+  <si>
+    <t>Cotorra</t>
+  </si>
+  <si>
+    <t>Corozal</t>
+  </si>
+  <si>
+    <t>Corinto</t>
+  </si>
+  <si>
+    <t>Copacabana</t>
+  </si>
+  <si>
+    <t>Concordia</t>
+  </si>
+  <si>
+    <t>Circasia</t>
+  </si>
+  <si>
+    <t>Cimitarra</t>
+  </si>
+  <si>
+    <t>Ciénaga de Oro</t>
+  </si>
+  <si>
+    <t>Ciénaga</t>
+  </si>
+  <si>
+    <t>Chivolo</t>
+  </si>
+  <si>
+    <t>Chiriguaná</t>
+  </si>
+  <si>
+    <t>Chiquinquirá</t>
+  </si>
+  <si>
+    <t>Chinú</t>
+  </si>
+  <si>
+    <t>Chinchiná</t>
+  </si>
+  <si>
+    <t>Chimichagua</t>
+  </si>
+  <si>
+    <t>Chigorodó</t>
+  </si>
+  <si>
+    <t>Chía</t>
+  </si>
+  <si>
+    <t>Chaparral</t>
+  </si>
+  <si>
+    <t>Cereté</t>
+  </si>
+  <si>
+    <t>Caucasia</t>
+  </si>
+  <si>
+    <t>Cartago</t>
+  </si>
+  <si>
+    <t>Cartagena</t>
+  </si>
+  <si>
+    <t>Carmen de Viboral</t>
+  </si>
+  <si>
+    <t>Candelaria</t>
+  </si>
+  <si>
+    <t>Campo de la Cruz</t>
+  </si>
+  <si>
+    <t>Campoalegre</t>
+  </si>
+  <si>
+    <t>Cali</t>
+  </si>
+  <si>
+    <t>Caldas</t>
+  </si>
+  <si>
+    <t>Calarcá</t>
+  </si>
+  <si>
+    <t>Cajicá</t>
+  </si>
+  <si>
+    <t>Caicedonia</t>
+  </si>
+  <si>
+    <t>Guadalajara de Buga</t>
+  </si>
+  <si>
+    <t>Buesaco</t>
+  </si>
+  <si>
+    <t>Buenaventura</t>
+  </si>
+  <si>
+    <t>Bucaramanga</t>
+  </si>
+  <si>
+    <t>Bosconia</t>
+  </si>
+  <si>
+    <t>Bogotá</t>
+  </si>
+  <si>
+    <t>Betulia</t>
+  </si>
+  <si>
+    <t>Bello</t>
+  </si>
+  <si>
+    <t>Belén de Umbría</t>
+  </si>
+  <si>
+    <t>Becerril</t>
+  </si>
+  <si>
+    <t>Barranquilla</t>
+  </si>
+  <si>
+    <t>Barrancas</t>
+  </si>
+  <si>
+    <t>Barrancabermeja</t>
+  </si>
+  <si>
+    <t>Barbosa</t>
+  </si>
+  <si>
+    <t>Baranoa</t>
+  </si>
+  <si>
+    <t>Balboa</t>
+  </si>
+  <si>
+    <t>Ayapel</t>
+  </si>
+  <si>
+    <t>Astrea</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Arjona</t>
+  </si>
+  <si>
+    <t>Ariguaní</t>
+  </si>
+  <si>
+    <t>Arauca</t>
+  </si>
+  <si>
+    <t>Aracataca</t>
+  </si>
+  <si>
+    <t>Apartadó</t>
+  </si>
+  <si>
+    <t>Santa Fe de Antioquia</t>
+  </si>
+  <si>
+    <t>Anserma</t>
+  </si>
+  <si>
+    <t>Andes</t>
+  </si>
+  <si>
+    <t>Andalucía</t>
+  </si>
+  <si>
+    <t>Anaime</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Aguazul</t>
+  </si>
+  <si>
+    <t>Aguadas</t>
+  </si>
+  <si>
+    <t>Aguachica</t>
+  </si>
+  <si>
+    <t>Acacías</t>
+  </si>
+  <si>
+    <t>Abejorral</t>
+  </si>
+  <si>
+    <t>Villa Rica</t>
+  </si>
+  <si>
+    <t>Fredonia</t>
+  </si>
+  <si>
+    <t>Carepa</t>
+  </si>
+  <si>
+    <t>Ciudad Bolívar</t>
+  </si>
+  <si>
+    <t>Tiquisio</t>
+  </si>
+  <si>
+    <t>Agustín Codazzi</t>
+  </si>
+  <si>
+    <t>Isnos</t>
+  </si>
+  <si>
+    <t>Plato</t>
+  </si>
+  <si>
+    <t>San José del Guaviare</t>
+  </si>
+  <si>
+    <t>Orito</t>
+  </si>
+  <si>
+    <t>Piendamo</t>
+  </si>
+  <si>
+    <t>EJEMPLO2</t>
+  </si>
+  <si>
+    <t>NOMBRE PROYECTO</t>
+  </si>
+  <si>
+    <t>EMAIL PROYECTO</t>
+  </si>
+  <si>
+    <t>EJEMPLO DE PROYECTO1</t>
+  </si>
+  <si>
+    <t>EJEMPLO DE PROYECTO2</t>
+  </si>
+  <si>
+    <t>EJEMPLOPROYECTO1@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>EJEMPLOPROYECTO2@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>EJEMPLOCONTACTOPROYEC1</t>
+  </si>
+  <si>
+    <t>EJEMPLOCONTACTOPROYEC2</t>
+  </si>
+  <si>
+    <t>EJEMPLOCONTACTOPROYEC1@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>EJEMPLOCONTACTOPROYEC2@GMAIL.COM</t>
+  </si>
+  <si>
+    <t>CALLE C1</t>
+  </si>
+  <si>
+    <t>CALLEC2</t>
+  </si>
+  <si>
+    <t>NOMBRE CLIENTE (YA EXISTENTE EN SISTEMA)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -42,13 +1009,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -60,13 +1055,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -345,17 +1351,1698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="42.6640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.44140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="41.5546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="2">
+        <v>123456789</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>321</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{6ACFD63B-4D5A-4F05-B19E-35B0D2F5171F}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{4C258386-D7A9-44E0-BEBA-EB9573BA5D55}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{449A7CD3-115B-4494-8CEF-F0A37E03B10A}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{4E66D366-F514-4D77-8CB2-E42310A7C328}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{7437082A-3B2B-4A30-8F2C-2AE989A7D990}">
+          <x14:formula1>
+            <xm:f>CIUDADES!$A$1:$A$312</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2:B1048576</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF4F765-3100-4A83-89E4-253C0494161D}">
+  <dimension ref="A1:A312"/>
+  <sheetViews>
+    <sheetView topLeftCell="A273" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>308</v>
       </c>
     </row>
   </sheetData>
